--- a/yonetici.xlsx
+++ b/yonetici.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinar\OneDrive\Belgeler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinar\Masaüstü\emu660-spring2025-pinarmurtezaoglu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>yil</t>
   </si>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,7 +406,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -417,276 +417,210 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16.600000000000001</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>14.4</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>17.3</v>
+      <c r="C7" s="2">
+        <v>19.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>16.3</v>
+      <c r="C8" s="2">
+        <v>20.7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>17.5</v>
+      <c r="C9" s="2">
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>19.3</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>20.7</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>19.600000000000001</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>20.6</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
-        <v>85.6</v>
+      <c r="C14" s="1">
+        <v>83.7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
-        <v>83.3</v>
+      <c r="C15" s="1">
+        <v>82.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>84.5</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>85.5</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>83.2</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>82.6</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>83.7</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>82.5</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>80.7</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>79.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>80.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>79.400000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
